--- a/data/taxa_per_stage_genus_sqs.xlsx
+++ b/data/taxa_per_stage_genus_sqs.xlsx
@@ -365,17 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mean_dif</t>
+          <t>mean_div</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>min_dif</t>
+          <t>min_div</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>max_dif</t>
+          <t>max_div</t>
         </is>
       </c>
     </row>

--- a/data/taxa_per_stage_genus_sqs.xlsx
+++ b/data/taxa_per_stage_genus_sqs.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,402 +378,533 @@
           <t>max_div</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="B2">
-        <v>12.0916</v>
+        <v>15.6656</v>
       </c>
       <c r="C2">
-        <v>11.36</v>
+        <v>14.33</v>
       </c>
       <c r="D2">
-        <v>12.76</v>
+        <v>16.48</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pleistocene</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2.58</v>
+        <v>5.333</v>
       </c>
       <c r="B3">
-        <v>15.6656</v>
+        <v>18.4767</v>
       </c>
       <c r="C3">
-        <v>14.33</v>
+        <v>16.68</v>
       </c>
       <c r="D3">
-        <v>16.48</v>
+        <v>20.19</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pliocene</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5.333</v>
+        <v>11.63</v>
       </c>
       <c r="B4">
-        <v>18.4767</v>
+        <v>19.3091</v>
       </c>
       <c r="C4">
-        <v>16.68</v>
+        <v>18.03</v>
       </c>
       <c r="D4">
-        <v>20.19</v>
+        <v>20.46</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tortonian</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>11.63</v>
+        <v>13.82</v>
       </c>
       <c r="B5">
-        <v>19.3091</v>
+        <v>19.8988</v>
       </c>
       <c r="C5">
-        <v>18.03</v>
+        <v>18.3</v>
       </c>
       <c r="D5">
-        <v>20.46</v>
+        <v>22.03</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Serravallian</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>13.82</v>
+        <v>15.97</v>
       </c>
       <c r="B6">
-        <v>19.8988</v>
+        <v>21.8509</v>
       </c>
       <c r="C6">
-        <v>18.3</v>
+        <v>20.72</v>
       </c>
       <c r="D6">
-        <v>22.03</v>
+        <v>22.79</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Langhian</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>15.97</v>
+        <v>20.44</v>
       </c>
       <c r="B7">
-        <v>21.8509</v>
+        <v>23.2266</v>
       </c>
       <c r="C7">
-        <v>20.72</v>
+        <v>21.97</v>
       </c>
       <c r="D7">
-        <v>22.79</v>
+        <v>24.22</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Burdigalian</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>20.44</v>
+        <v>23.03</v>
       </c>
       <c r="B8">
-        <v>23.2266</v>
+        <v>22.8541</v>
       </c>
       <c r="C8">
-        <v>21.97</v>
+        <v>21.19</v>
       </c>
       <c r="D8">
-        <v>24.22</v>
+        <v>24.97</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aquitanian</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>23.03</v>
+        <v>27.82</v>
       </c>
       <c r="B9">
-        <v>22.8541</v>
+        <v>24.1575</v>
       </c>
       <c r="C9">
-        <v>21.19</v>
+        <v>23.02</v>
       </c>
       <c r="D9">
-        <v>24.97</v>
+        <v>25.88</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Chattian</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>27.82</v>
+        <v>33.9</v>
       </c>
       <c r="B10">
-        <v>24.1575</v>
+        <v>13.13</v>
       </c>
       <c r="C10">
-        <v>23.02</v>
+        <v>12.29</v>
       </c>
       <c r="D10">
-        <v>25.88</v>
+        <v>13.95</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rupelian</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>33.9</v>
+        <v>37.71</v>
       </c>
       <c r="B11">
-        <v>13.13</v>
+        <v>23.3427</v>
       </c>
       <c r="C11">
-        <v>12.29</v>
+        <v>22.29</v>
       </c>
       <c r="D11">
-        <v>13.95</v>
+        <v>24.54</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Priabonian</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>37.71</v>
+        <v>41.2</v>
       </c>
       <c r="B12">
-        <v>23.3427</v>
+        <v>37.2284</v>
       </c>
       <c r="C12">
-        <v>22.29</v>
+        <v>34.4</v>
       </c>
       <c r="D12">
-        <v>24.54</v>
+        <v>40.2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bartonian</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>41.2</v>
+        <v>47.8</v>
       </c>
       <c r="B13">
-        <v>37.2284</v>
+        <v>31.9787</v>
       </c>
       <c r="C13">
-        <v>34.4</v>
+        <v>30.59</v>
       </c>
       <c r="D13">
-        <v>40.2</v>
+        <v>33.74</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lutetian</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>47.8</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>31.9787</v>
+        <v>32.0429</v>
       </c>
       <c r="C14">
-        <v>30.59</v>
+        <v>31.05</v>
       </c>
       <c r="D14">
-        <v>33.74</v>
+        <v>33.18</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Ypresian</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>56</v>
+        <v>59.2</v>
       </c>
       <c r="B15">
-        <v>32.0429</v>
+        <v>23.3367</v>
       </c>
       <c r="C15">
-        <v>31.05</v>
+        <v>22.18</v>
       </c>
       <c r="D15">
-        <v>33.18</v>
+        <v>24.73</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thanetian</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>59.2</v>
+        <v>61.6</v>
       </c>
       <c r="B16">
-        <v>23.3367</v>
+        <v>19.0518</v>
       </c>
       <c r="C16">
-        <v>22.18</v>
+        <v>14.1</v>
       </c>
       <c r="D16">
-        <v>24.73</v>
+        <v>24.41</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Selandian</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>61.6</v>
+        <v>66</v>
       </c>
       <c r="B17">
-        <v>19.0518</v>
+        <v>28.8767</v>
       </c>
       <c r="C17">
-        <v>14.1</v>
+        <v>26.68</v>
       </c>
       <c r="D17">
-        <v>24.41</v>
+        <v>30.48</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Danian</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>66</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="B18">
-        <v>28.8767</v>
+        <v>23.2821</v>
       </c>
       <c r="C18">
-        <v>26.68</v>
+        <v>21.94</v>
       </c>
       <c r="D18">
-        <v>30.48</v>
+        <v>24.45</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Maastrichtian</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>72.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="B19">
-        <v>23.2821</v>
+        <v>23.5792</v>
       </c>
       <c r="C19">
-        <v>21.94</v>
+        <v>22.58</v>
       </c>
       <c r="D19">
-        <v>24.45</v>
+        <v>25.05</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Campanian</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>83.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="B20">
-        <v>23.5792</v>
+        <v>29.393</v>
       </c>
       <c r="C20">
-        <v>22.58</v>
+        <v>27.97</v>
       </c>
       <c r="D20">
-        <v>25.05</v>
+        <v>31.63</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Santonian</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>86.3</v>
+        <v>89.8</v>
       </c>
       <c r="B21">
-        <v>29.393</v>
+        <v>13.0092</v>
       </c>
       <c r="C21">
-        <v>27.97</v>
+        <v>11.81</v>
       </c>
       <c r="D21">
-        <v>31.63</v>
+        <v>13.98</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Coniacian</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>89.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="B22">
-        <v>13.0092</v>
+        <v>14.7209</v>
       </c>
       <c r="C22">
-        <v>11.81</v>
+        <v>13.55</v>
       </c>
       <c r="D22">
-        <v>13.98</v>
+        <v>15.58</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Turonian</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>93.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="B23">
-        <v>14.7209</v>
+        <v>18.9835</v>
       </c>
       <c r="C23">
-        <v>13.55</v>
+        <v>17.8</v>
       </c>
       <c r="D23">
-        <v>15.58</v>
+        <v>20.1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cenomanian</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>100.5</v>
+        <v>113</v>
       </c>
       <c r="B24">
-        <v>18.9835</v>
+        <v>12.7339</v>
       </c>
       <c r="C24">
-        <v>17.8</v>
+        <v>12.06</v>
       </c>
       <c r="D24">
-        <v>20.1</v>
+        <v>13.58</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Albian</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B25">
-        <v>12.7339</v>
+        <v>10.1269</v>
       </c>
       <c r="C25">
-        <v>12.06</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D25">
-        <v>13.58</v>
+        <v>12.17</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aptian</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>125</v>
+        <v>129.4</v>
       </c>
       <c r="B26">
-        <v>10.1269</v>
+        <v>4.0442</v>
       </c>
       <c r="C26">
-        <v>8.359999999999999</v>
+        <v>2.75</v>
       </c>
       <c r="D26">
-        <v>12.17</v>
+        <v>6.26</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Barremian</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>129.4</v>
+        <v>132.6</v>
       </c>
       <c r="B27">
-        <v>4.0442</v>
+        <v>2.5533</v>
       </c>
       <c r="C27">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="D27">
-        <v>6.26</v>
+        <v>3.08</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hauterivian</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>132.6</v>
-      </c>
-      <c r="B28">
-        <v>2.5533</v>
-      </c>
-      <c r="C28">
-        <v>2.05</v>
-      </c>
-      <c r="D28">
-        <v>3.08</v>
+        <v>139.8</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Valanginian</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>139.8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
         <v>145</v>
       </c>
-      <c r="B30">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D29">
         <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Berriasian</t>
+        </is>
       </c>
     </row>
   </sheetData>
